--- a/Tag_Guide_SRW.xlsx
+++ b/Tag_Guide_SRW.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewsavoca/Documents/Research Data/Whale research/Southern right whale research/WestCapeSRW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D06D3FA-52FC-294B-988C-A1353F06DFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D61F73B0-FF17-F746-B36F-2DEE01197AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="-17020" windowWidth="27620" windowHeight="14680" xr2:uid="{498424C6-0604-414A-9013-04C57BC88F5F}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{498424C6-0604-414A-9013-04C57BC88F5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -228,12 +228,6 @@
     <t>Data_End</t>
   </si>
   <si>
-    <t>Lat_On    _</t>
-  </si>
-  <si>
-    <t>Long_On    _</t>
-  </si>
-  <si>
     <t>Tagging Vessel              _</t>
   </si>
   <si>
@@ -442,6 +436,45 @@
   </si>
   <si>
     <t>After slip, PRH gets messy since tag is on flipper and flipper is moving.</t>
+  </si>
+  <si>
+    <t>Lat_On</t>
+  </si>
+  <si>
+    <t>Long_On</t>
+  </si>
+  <si>
+    <t>ea250124-40</t>
+  </si>
+  <si>
+    <t>ea250131-40</t>
+  </si>
+  <si>
+    <t>ea250124-82</t>
+  </si>
+  <si>
+    <t>ea250124-P46</t>
+  </si>
+  <si>
+    <t>ea250124-P48</t>
+  </si>
+  <si>
+    <t>01/25/2025 09:21</t>
+  </si>
+  <si>
+    <t>Not processing videos yet just making PRH data files</t>
+  </si>
+  <si>
+    <t>01/25/2025 09:06</t>
+  </si>
+  <si>
+    <t>01/25/2025 10:12</t>
+  </si>
+  <si>
+    <t>Not processing videos yet just making PRH data files; NO MAG</t>
+  </si>
+  <si>
+    <t>01/25/2025 10:22</t>
   </si>
 </sst>
 </file>
@@ -454,7 +487,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]m/d/yy\ hh:mm:ss;@"/>
     <numFmt numFmtId="167" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -507,8 +540,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +557,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,7 +589,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -599,7 +644,6 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -608,12 +652,39 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="21" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="46" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="159">
+  <dxfs count="29">
     <dxf>
       <fill>
         <patternFill>
@@ -622,53 +693,10 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <font>
+        <b/>
+        <i/>
+      </font>
     </dxf>
     <dxf>
       <fill>
@@ -858,868 +886,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1734,9 +900,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1774,7 +940,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1880,7 +1046,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2022,7 +1188,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2030,15 +1196,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E659A7EB-BA28-DE47-B862-00B7EFB35F05}">
-  <dimension ref="A1:BI14"/>
+  <dimension ref="A1:BI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="52" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="57" x14ac:dyDescent="0.2">
@@ -2199,101 +1369,101 @@
         <v>51</v>
       </c>
       <c r="BA1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="BC1" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BD1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="BE1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BF1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="5" t="s">
+      <c r="BG1" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="BH1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="BI1" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="BH1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F2" s="12">
         <v>2</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I2" s="14"/>
       <c r="J2" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P2" s="14"/>
       <c r="Q2" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W2" s="16"/>
       <c r="X2" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Y2" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z2" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA2" s="26">
+      <c r="AA2" s="25">
         <v>1.9363425925925926E-2</v>
       </c>
       <c r="AB2" s="18">
@@ -2309,53 +1479,53 @@
         <v>2</v>
       </c>
       <c r="AF2" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG2" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AH2" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AI2" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AJ2" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK2" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AL2" s="14"/>
       <c r="AM2" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN2" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AO2" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AQ2" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AR2" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AS2" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AT2" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AU2" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AV2" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AW2" s="20">
         <v>44939.532812500001</v>
@@ -2369,98 +1539,102 @@
       <c r="AZ2" s="21">
         <v>44939.553472222222</v>
       </c>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="22"/>
+      <c r="BA2" s="26">
+        <v>-33.526000000000003</v>
+      </c>
+      <c r="BB2" s="26">
+        <v>18.047339999999998</v>
+      </c>
       <c r="BC2" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BD2" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BE2" s="20">
         <v>44939</v>
       </c>
-      <c r="BF2" s="23">
+      <c r="BF2" s="22">
         <v>-33.5154</v>
       </c>
-      <c r="BG2" s="24">
+      <c r="BG2" s="23">
         <v>18.116499999999998</v>
       </c>
       <c r="BH2" s="17" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BI2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F3" s="12">
         <v>2</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P3" s="14"/>
       <c r="Q3" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S3" s="14"/>
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
       <c r="V3" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W3" s="16"/>
       <c r="X3" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Y3" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z3" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA3" s="26">
+      <c r="AA3" s="25">
         <v>3.6238425925925924E-2</v>
       </c>
       <c r="AB3" s="18">
@@ -2476,53 +1650,53 @@
         <v>2</v>
       </c>
       <c r="AF3" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG3" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AH3" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AI3" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AJ3" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK3" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AL3" s="14"/>
       <c r="AM3" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN3" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AO3" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP3" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AQ3" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AR3" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AS3" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AT3" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AU3" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="AV3" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AW3" s="20">
         <v>44939.588379629633</v>
@@ -2536,98 +1710,102 @@
       <c r="AZ3" s="21">
         <v>44939.627106481479</v>
       </c>
-      <c r="BA3" s="22"/>
-      <c r="BB3" s="22"/>
+      <c r="BA3" s="26">
+        <v>-33.5139</v>
+      </c>
+      <c r="BB3" s="26">
+        <v>18.120699999999999</v>
+      </c>
       <c r="BC3" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BD3" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BE3" s="20">
         <v>44942.663194444445</v>
       </c>
-      <c r="BF3" s="23">
+      <c r="BF3" s="22">
         <v>-33.529899999999998</v>
       </c>
-      <c r="BG3" s="24">
+      <c r="BG3" s="23">
         <v>18.158950000000001</v>
       </c>
       <c r="BH3" s="17" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BI3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="E4" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F4" s="12">
         <v>2</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P4" s="14"/>
       <c r="Q4" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S4" s="14"/>
       <c r="T4" s="14"/>
       <c r="U4" s="14"/>
       <c r="V4" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W4" s="16"/>
       <c r="X4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Y4" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z4" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA4" s="26">
+      <c r="AA4" s="25">
         <v>7.6898148148148146E-2</v>
       </c>
       <c r="AB4" s="18">
@@ -2643,53 +1821,53 @@
         <v>6</v>
       </c>
       <c r="AF4" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG4" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AH4" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AI4" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AJ4" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK4" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AL4" s="14"/>
       <c r="AM4" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN4" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AO4" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP4" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AQ4" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AR4" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AS4" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AT4" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AU4" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AV4" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AW4" s="20">
         <v>44939.547754629632</v>
@@ -2703,98 +1881,102 @@
       <c r="AZ4" s="21">
         <v>44939.62736111111</v>
       </c>
-      <c r="BA4" s="22"/>
-      <c r="BB4" s="22"/>
+      <c r="BA4" s="26">
+        <v>-33.517200000000003</v>
+      </c>
+      <c r="BB4" s="26">
+        <v>18.070810000000002</v>
+      </c>
       <c r="BC4" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BD4" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BE4" s="20">
         <v>44942.443055555559</v>
       </c>
-      <c r="BF4" s="24">
+      <c r="BF4" s="23">
         <v>-33.2881</v>
       </c>
-      <c r="BG4" s="24">
+      <c r="BG4" s="23">
         <v>17.9832</v>
       </c>
       <c r="BH4" s="17" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BI4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F5" s="12">
         <v>2</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P5" s="14"/>
       <c r="Q5" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
       <c r="U5" s="14"/>
       <c r="V5" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="W5" s="16"/>
       <c r="X5" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y5" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z5" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA5" s="26">
+        <v>92</v>
+      </c>
+      <c r="AA5" s="25">
         <v>0</v>
       </c>
       <c r="AB5" s="18">
@@ -2810,155 +1992,159 @@
         <v>0</v>
       </c>
       <c r="AF5" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AH5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AI5" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AJ5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK5" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AL5" s="14"/>
       <c r="AM5" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AO5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AQ5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AR5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AS5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AT5" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AU5" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AV5" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AW5" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AX5" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AY5" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AZ5" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="BA5" s="22"/>
-      <c r="BB5" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="BA5" s="26">
+        <v>-33.267899999999997</v>
+      </c>
+      <c r="BB5" s="26">
+        <v>17.903739999999999</v>
+      </c>
       <c r="BC5" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BD5" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BE5" s="20">
         <v>44942.55</v>
       </c>
-      <c r="BF5" s="24">
+      <c r="BF5" s="23">
         <v>-33.267400000000002</v>
       </c>
-      <c r="BG5" s="24">
+      <c r="BG5" s="23">
         <v>17.90361</v>
       </c>
       <c r="BH5" s="17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="E6" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F6" s="12">
         <v>2</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P6" s="14"/>
       <c r="Q6" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
       <c r="U6" s="14"/>
       <c r="V6" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W6" s="16"/>
       <c r="X6" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z6" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Y6" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z6" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA6" s="26">
+      <c r="AA6" s="25">
         <v>6.1047453703703706E-3</v>
       </c>
       <c r="AB6" s="18">
@@ -2974,53 +2160,53 @@
         <v>2</v>
       </c>
       <c r="AF6" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG6" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AH6" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AI6" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AJ6" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK6" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AL6" s="14"/>
       <c r="AM6" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN6" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AO6" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP6" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AQ6" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AR6" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AS6" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AT6" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AU6" s="17" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AV6" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AW6" s="20">
         <v>44942.502442129633</v>
@@ -3034,98 +2220,102 @@
       <c r="AZ6" s="21">
         <v>44942.868726851855</v>
       </c>
-      <c r="BA6" s="22"/>
-      <c r="BB6" s="22"/>
+      <c r="BA6" s="26">
+        <v>-33.2729</v>
+      </c>
+      <c r="BB6" s="26">
+        <v>17.922059999999998</v>
+      </c>
       <c r="BC6" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BD6" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BE6" s="20">
         <v>44943.6875</v>
       </c>
-      <c r="BF6" s="24">
+      <c r="BF6" s="23">
         <v>-33.3003</v>
       </c>
-      <c r="BG6" s="24">
+      <c r="BG6" s="23">
         <v>17.99709</v>
       </c>
       <c r="BH6" s="17" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BI6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F7" s="12">
         <v>2</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P7" s="14"/>
       <c r="Q7" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
       <c r="U7" s="14"/>
       <c r="V7" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="W7" s="16"/>
       <c r="X7" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z7" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Y7" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA7" s="26">
+      <c r="AA7" s="25">
         <v>7.719907407407408E-3</v>
       </c>
       <c r="AB7" s="18">
@@ -3141,53 +2331,53 @@
         <v>2</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG7" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AH7" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AI7" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AJ7" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK7" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AL7" s="14"/>
       <c r="AM7" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AN7" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AO7" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP7" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AQ7" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AR7" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AS7" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AT7" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AU7" s="17" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AV7" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AW7" s="20">
         <v>44945.662881944445</v>
@@ -3201,98 +2391,102 @@
       <c r="AZ7" s="21">
         <v>44945.672303240739</v>
       </c>
-      <c r="BA7" s="22"/>
-      <c r="BB7" s="22"/>
+      <c r="BA7" s="26">
+        <v>-33.271099999999997</v>
+      </c>
+      <c r="BB7" s="26">
+        <v>17.97045</v>
+      </c>
       <c r="BC7" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BD7" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BE7" s="20">
         <v>44945.68472222222</v>
       </c>
-      <c r="BF7" s="24">
+      <c r="BF7" s="23">
         <v>-33.2605</v>
       </c>
-      <c r="BG7" s="24">
+      <c r="BG7" s="23">
         <v>17.95919</v>
       </c>
       <c r="BH7" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BI7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>103</v>
+      <c r="A8" s="24" t="s">
+        <v>101</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="E8" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F8" s="12">
         <v>2</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="O8" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P8" s="14"/>
       <c r="Q8" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
       <c r="U8" s="14"/>
       <c r="V8" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W8" s="16"/>
       <c r="X8" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y8" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z8" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA8" s="26">
+        <v>92</v>
+      </c>
+      <c r="AA8" s="25">
         <v>0</v>
       </c>
       <c r="AB8" s="18">
@@ -3308,155 +2502,159 @@
         <v>0</v>
       </c>
       <c r="AF8" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG8" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AH8" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AI8" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AJ8" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK8" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AL8" s="14"/>
       <c r="AM8" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AN8" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AO8" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP8" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AQ8" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AR8" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AS8" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AT8" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AU8" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AV8" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AW8" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AX8" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AY8" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AZ8" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="BA8" s="22"/>
-      <c r="BB8" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="BA8" s="26">
+        <v>-33.2361</v>
+      </c>
+      <c r="BB8" s="26">
+        <v>17.989139999999999</v>
+      </c>
       <c r="BC8" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BD8" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BE8" s="20">
         <v>44945</v>
       </c>
-      <c r="BF8" s="24">
+      <c r="BF8" s="23">
         <v>-33.2361</v>
       </c>
-      <c r="BG8" s="24">
+      <c r="BG8" s="23">
         <v>17.989139999999999</v>
       </c>
       <c r="BH8" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>105</v>
+      <c r="A9" s="24" t="s">
+        <v>103</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F9" s="12">
         <v>2</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="O9" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P9" s="14"/>
       <c r="Q9" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
       <c r="V9" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W9" s="16"/>
       <c r="X9" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y9" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA9" s="26">
+        <v>92</v>
+      </c>
+      <c r="AA9" s="25">
         <v>0</v>
       </c>
       <c r="AB9" s="18">
@@ -3472,155 +2670,159 @@
         <v>0</v>
       </c>
       <c r="AF9" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AH9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AI9" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AJ9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK9" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AL9" s="14"/>
       <c r="AM9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AN9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AO9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AQ9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AR9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AS9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AT9" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AU9" s="17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AV9" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AW9" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AX9" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AY9" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AZ9" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="BA9" s="22"/>
-      <c r="BB9" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="BA9" s="26">
+        <v>-33.241199999999999</v>
+      </c>
+      <c r="BB9" s="26">
+        <v>17.992429999999999</v>
+      </c>
       <c r="BC9" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BD9" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BE9" s="20">
         <v>44945.75</v>
       </c>
-      <c r="BF9" s="24">
+      <c r="BF9" s="23">
         <v>-33.241199999999999</v>
       </c>
-      <c r="BG9" s="24">
+      <c r="BG9" s="23">
         <v>17.992429999999999</v>
       </c>
       <c r="BH9" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="E10" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F10" s="12">
         <v>2</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P10" s="14"/>
       <c r="Q10" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="W10" s="16"/>
       <c r="X10" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z10" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Y10" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z10" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA10" s="26">
+      <c r="AA10" s="25">
         <v>6.6296296296296298E-2</v>
       </c>
       <c r="AB10" s="18">
@@ -3636,53 +2838,53 @@
         <v>119</v>
       </c>
       <c r="AF10" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG10" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AH10" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AI10" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AJ10" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK10" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AL10" s="14"/>
       <c r="AM10" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN10" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AO10" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP10" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AQ10" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR10" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AS10" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AT10" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AU10" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AV10" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AW10" s="20">
         <v>44945.769895833335</v>
@@ -3696,95 +2898,99 @@
       <c r="AZ10" s="21">
         <v>44945.837754629632</v>
       </c>
-      <c r="BA10" s="22"/>
-      <c r="BB10" s="22"/>
+      <c r="BA10" s="26">
+        <v>-33.236600000000003</v>
+      </c>
+      <c r="BB10" s="26">
+        <v>17.983350000000002</v>
+      </c>
       <c r="BC10" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BD10" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BE10" s="20">
         <v>44946.470833333333</v>
       </c>
-      <c r="BF10" s="24">
+      <c r="BF10" s="23">
         <v>-33.268000000000001</v>
       </c>
-      <c r="BG10" s="24">
+      <c r="BG10" s="23">
         <v>17.976279999999999</v>
       </c>
       <c r="BH10" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F11" s="12">
         <v>2</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I11" s="14"/>
       <c r="J11" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P11" s="14"/>
       <c r="Q11" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
       <c r="V11" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W11" s="16"/>
       <c r="X11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y11" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z11" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Y11" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z11" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA11" s="26">
+      <c r="AA11" s="25">
         <v>3.4671296296296297E-2</v>
       </c>
       <c r="AB11" s="18">
@@ -3800,53 +3006,53 @@
         <v>2</v>
       </c>
       <c r="AF11" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG11" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AH11" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AI11" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AJ11" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK11" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AL11" s="14"/>
       <c r="AM11" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN11" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AO11" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP11" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AQ11" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AR11" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AS11" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AT11" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AU11" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AV11" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AW11" s="20">
         <v>44945.723807870374</v>
@@ -3860,95 +3066,99 @@
       <c r="AZ11" s="21">
         <v>44945.758483796293</v>
       </c>
-      <c r="BA11" s="22"/>
-      <c r="BB11" s="22"/>
+      <c r="BA11" s="26">
+        <v>-33.2348</v>
+      </c>
+      <c r="BB11" s="26">
+        <v>17.97871</v>
+      </c>
       <c r="BC11" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BD11" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BE11" s="20">
         <v>44945.763194444444</v>
       </c>
-      <c r="BF11" s="24">
+      <c r="BF11" s="23">
         <v>-33.2346</v>
       </c>
-      <c r="BG11" s="24">
+      <c r="BG11" s="23">
         <v>17.984030000000001</v>
       </c>
       <c r="BH11" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="E12" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F12" s="12">
         <v>2</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P12" s="14"/>
       <c r="Q12" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
       <c r="V12" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="W12" s="16"/>
       <c r="X12" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y12" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z12" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA12" s="26">
+        <v>111</v>
+      </c>
+      <c r="AA12" s="25">
         <v>0.10545138888888889</v>
       </c>
       <c r="AB12" s="18">
@@ -3964,53 +3174,53 @@
         <v>16</v>
       </c>
       <c r="AF12" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG12" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AH12" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AI12" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AJ12" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK12" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AL12" s="14"/>
       <c r="AM12" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN12" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AO12" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP12" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AQ12" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AR12" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AS12" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AT12" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AU12" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AV12" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AW12" s="20">
         <v>44945.785254629627</v>
@@ -4024,98 +3234,102 @@
       <c r="AZ12" s="21">
         <v>44945.893321759257</v>
       </c>
-      <c r="BA12" s="22"/>
-      <c r="BB12" s="22"/>
+      <c r="BA12" s="26">
+        <v>-33.242800000000003</v>
+      </c>
+      <c r="BB12" s="26">
+        <v>17.98771</v>
+      </c>
       <c r="BC12" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BD12" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BE12" s="20">
         <v>44946.475694444445</v>
       </c>
-      <c r="BF12" s="24">
+      <c r="BF12" s="23">
         <v>-33.256799999999998</v>
       </c>
-      <c r="BG12" s="24">
+      <c r="BG12" s="23">
         <v>17.973199999999999</v>
       </c>
       <c r="BH12" s="17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="BI12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F13" s="12">
         <v>2</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I13" s="14"/>
       <c r="J13" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P13" s="14"/>
       <c r="Q13" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R13" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
       <c r="V13" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="W13" s="16"/>
       <c r="X13" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Y13" s="17" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Z13" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA13" s="26">
+        <v>116</v>
+      </c>
+      <c r="AA13" s="25">
         <v>0.31928240740740738</v>
       </c>
       <c r="AB13" s="18">
@@ -4131,53 +3345,53 @@
         <v>2</v>
       </c>
       <c r="AF13" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG13" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AH13" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AI13" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AJ13" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK13" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AL13" s="14"/>
       <c r="AM13" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN13" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AO13" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP13" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AQ13" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AR13" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AS13" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AT13" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AU13" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AV13" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AW13" s="20">
         <v>44946.496979166666</v>
@@ -4191,95 +3405,99 @@
       <c r="AZ13" s="21">
         <v>44947.350717592592</v>
       </c>
-      <c r="BA13" s="22"/>
-      <c r="BB13" s="22"/>
+      <c r="BA13" s="26">
+        <v>-33.238900000000001</v>
+      </c>
+      <c r="BB13" s="26">
+        <v>17.981539999999999</v>
+      </c>
       <c r="BC13" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BD13" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BE13" s="20">
         <v>44947.424305555556</v>
       </c>
-      <c r="BF13" s="24">
+      <c r="BF13" s="23">
         <v>-33.33</v>
       </c>
-      <c r="BG13" s="24">
+      <c r="BG13" s="23">
         <v>18.147670000000002</v>
       </c>
       <c r="BH13" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B14" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="E14" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>65</v>
       </c>
       <c r="F14" s="12">
         <v>2</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P14" s="14"/>
       <c r="Q14" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
       <c r="U14" s="14"/>
       <c r="V14" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W14" s="16"/>
       <c r="X14" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y14" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z14" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="Y14" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z14" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="AA14" s="26">
+      <c r="AA14" s="25">
         <v>0.25310185185185186</v>
       </c>
       <c r="AB14" s="18">
@@ -4295,53 +3513,53 @@
         <v>3</v>
       </c>
       <c r="AF14" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG14" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AH14" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AI14" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AJ14" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AK14" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AL14" s="14"/>
       <c r="AM14" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AN14" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AO14" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AP14" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AQ14" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AR14" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AS14" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AT14" s="14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AU14" s="17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AV14" s="17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AW14" s="20">
         <v>44946.551067824075</v>
@@ -4355,831 +3573,623 @@
       <c r="AZ14" s="21">
         <v>44946.804178240738</v>
       </c>
-      <c r="BA14" s="22"/>
-      <c r="BB14" s="22"/>
+      <c r="BA14" s="26">
+        <v>-33.233800000000002</v>
+      </c>
+      <c r="BB14" s="26">
+        <v>17.98047</v>
+      </c>
       <c r="BC14" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BD14" s="17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="BE14" s="20">
         <v>44947.443055555559</v>
       </c>
-      <c r="BF14" s="24">
+      <c r="BF14" s="23">
         <v>-33.296300000000002</v>
       </c>
-      <c r="BG14" s="24">
+      <c r="BG14" s="23">
         <v>18.064800000000002</v>
       </c>
       <c r="BH14" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="BI14" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="12">
+        <v>2</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="V15">
+        <v>40</v>
+      </c>
+      <c r="X15" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA15" s="18">
+        <f t="shared" ref="AA15:AA19" si="0">AY15-AX15</f>
+        <v>0.15038101851678221</v>
+      </c>
+      <c r="AB15" s="18">
+        <f t="shared" ref="AB15:AB19" si="1">MIN(AY15,AZ15)-MAX(AW15,AX15)</f>
+        <v>0.15038101851678221</v>
+      </c>
+      <c r="AI15" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ15" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV15" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX15" s="20">
+        <v>45681.536990740744</v>
+      </c>
+      <c r="AY15" s="20">
+        <v>45681.687371759261</v>
+      </c>
+      <c r="BA15" s="24">
+        <v>-33.224899999999998</v>
+      </c>
+      <c r="BB15" s="24">
+        <v>18.034459999999999</v>
+      </c>
+      <c r="BC15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD15" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE15" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="BF15" s="24">
+        <v>-33.249099999999999</v>
+      </c>
+      <c r="BG15" s="24">
+        <v>18.034338909999999</v>
+      </c>
+      <c r="BH15" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="31">
+        <v>2</v>
+      </c>
+      <c r="G16" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="33"/>
+      <c r="V16" s="27">
+        <v>40</v>
+      </c>
+      <c r="X16" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y16" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA16" s="18">
+        <f t="shared" si="0"/>
+        <v>0.26793310185166774</v>
+      </c>
+      <c r="AB16" s="18">
+        <f t="shared" si="1"/>
+        <v>0.26793310185166774</v>
+      </c>
+      <c r="AI16" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ16" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV16" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX16" s="35">
+        <v>45688.395839120371</v>
+      </c>
+      <c r="AY16" s="20">
+        <v>45688.663772222222</v>
+      </c>
+      <c r="BA16" s="36">
+        <v>-33.3767</v>
+      </c>
+      <c r="BB16" s="36">
+        <v>18.054950000000002</v>
+      </c>
+      <c r="BC16" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD16" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE16" s="37">
+        <v>45689.343055555553</v>
+      </c>
+      <c r="BF16" s="36">
+        <v>-33.380899999999997</v>
+      </c>
+      <c r="BG16" s="36">
+        <v>18.054539999999999</v>
+      </c>
+      <c r="BH16" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="12">
+        <v>2</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="14"/>
+      <c r="V17">
+        <v>82</v>
+      </c>
+      <c r="X17" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y17" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA17" s="18">
+        <f t="shared" si="0"/>
+        <v>0.23937453704274958</v>
+      </c>
+      <c r="AB17" s="18">
+        <f t="shared" si="1"/>
+        <v>0.23937453704274958</v>
+      </c>
+      <c r="AI17" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ17" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV17" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX17" s="20">
+        <v>45681.512333796294</v>
+      </c>
+      <c r="AY17" s="20">
+        <v>45681.751708333337</v>
+      </c>
+      <c r="BA17" s="24">
+        <v>-33.220700000000001</v>
+      </c>
+      <c r="BB17" s="24">
+        <v>18.0243</v>
+      </c>
+      <c r="BC17" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD17" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE17" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="BF17" s="24">
+        <v>-33.230200000000004</v>
+      </c>
+      <c r="BG17" s="24">
+        <v>18.014138020000001</v>
+      </c>
+      <c r="BH17" s="17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="31">
+        <v>2</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="33"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="W18" s="27"/>
+      <c r="X18" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y18" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="38">
+        <f t="shared" si="0"/>
+        <v>0.19173263888660586</v>
+      </c>
+      <c r="AB18" s="38">
+        <f t="shared" si="1"/>
+        <v>0.19173263888660586</v>
+      </c>
+      <c r="AC18" s="27"/>
+      <c r="AD18" s="27"/>
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="27"/>
+      <c r="AG18" s="27"/>
+      <c r="AH18" s="27"/>
+      <c r="AI18" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ18" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK18" s="27"/>
+      <c r="AL18" s="27"/>
+      <c r="AM18" s="27"/>
+      <c r="AN18" s="27"/>
+      <c r="AO18" s="27"/>
+      <c r="AP18" s="27"/>
+      <c r="AQ18" s="27"/>
+      <c r="AR18" s="27"/>
+      <c r="AS18" s="27"/>
+      <c r="AT18" s="27"/>
+      <c r="AU18" s="27"/>
+      <c r="AV18" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW18" s="27"/>
+      <c r="AX18" s="35">
+        <v>45681.40105601852</v>
+      </c>
+      <c r="AY18" s="35">
+        <v>45681.592788657406</v>
+      </c>
+      <c r="AZ18" s="27"/>
+      <c r="BA18" s="36">
+        <v>-33.193800000000003</v>
+      </c>
+      <c r="BB18" s="36">
+        <v>17.99727</v>
+      </c>
+      <c r="BC18" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD18" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE18" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF18" s="34">
+        <v>-33.215400000000002</v>
+      </c>
+      <c r="BG18" s="34">
+        <v>18.006772009999999</v>
+      </c>
+      <c r="BH18" s="34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="12">
+        <v>2</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I19" s="14"/>
+      <c r="V19" t="s">
+        <v>85</v>
+      </c>
+      <c r="X19" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y19" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA19" s="18">
+        <f t="shared" si="0"/>
+        <v>0.13804513889044756</v>
+      </c>
+      <c r="AB19" s="18">
+        <f t="shared" si="1"/>
+        <v>0.13804513889044756</v>
+      </c>
+      <c r="AI19" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ19" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV19" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX19" s="20">
+        <v>45681.469620370372</v>
+      </c>
+      <c r="AY19" s="20">
+        <v>45681.607665509262</v>
+      </c>
+      <c r="BA19" s="24">
+        <v>-33.212899999999998</v>
+      </c>
+      <c r="BB19" s="24">
+        <v>18.01322</v>
+      </c>
+      <c r="BC19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BD19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE19" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="BF19" s="24">
+        <v>-33.213299999999997</v>
+      </c>
+      <c r="BG19" s="24">
+        <v>18.014572040000001</v>
+      </c>
+      <c r="BH19" s="17" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="U2:U8 C2:D2 AJ2 Y2 R2">
-    <cfRule type="expression" dxfId="158" priority="159">
+  <conditionalFormatting sqref="A2:C14">
+    <cfRule type="expression" dxfId="28" priority="21">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z2">
-    <cfRule type="expression" dxfId="157" priority="153">
+  <conditionalFormatting sqref="C2:D2">
+    <cfRule type="expression" dxfId="27" priority="174">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AX2">
-    <cfRule type="expression" dxfId="156" priority="152">
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="expression" dxfId="26" priority="50">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AZ2">
-    <cfRule type="expression" dxfId="155" priority="151">
+  <conditionalFormatting sqref="D9:I11 U9:AB14 D12:K12 M12:R12 D13:R14">
+    <cfRule type="expression" dxfId="25" priority="43">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BG2">
-    <cfRule type="expression" dxfId="154" priority="150">
+  <conditionalFormatting sqref="E2:I8">
+    <cfRule type="expression" dxfId="24" priority="51">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
-    <cfRule type="expression" dxfId="153" priority="148">
+  <conditionalFormatting sqref="J2:R11">
+    <cfRule type="expression" dxfId="23" priority="20">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
-    <cfRule type="expression" dxfId="152" priority="147">
+  <conditionalFormatting sqref="S2:T14">
+    <cfRule type="expression" dxfId="22" priority="39">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M2">
-    <cfRule type="expression" dxfId="151" priority="146">
+  <conditionalFormatting sqref="U2:AY8">
+    <cfRule type="expression" dxfId="21" priority="44">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="expression" dxfId="150" priority="145">
+  <conditionalFormatting sqref="Z2:AA14">
+    <cfRule type="expression" dxfId="20" priority="42">
+      <formula>"$J5!=$K5"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC9:AY11">
+    <cfRule type="expression" dxfId="19" priority="37">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O2">
-    <cfRule type="expression" dxfId="149" priority="144">
+  <conditionalFormatting sqref="AC12:AZ14">
+    <cfRule type="expression" dxfId="18" priority="41">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U2">
-    <cfRule type="expression" dxfId="148" priority="143">
+  <conditionalFormatting sqref="AZ2:AZ11">
+    <cfRule type="expression" dxfId="17" priority="36">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW2">
-    <cfRule type="expression" dxfId="147" priority="142">
+  <conditionalFormatting sqref="BC9:BH14">
+    <cfRule type="expression" dxfId="16" priority="35">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK2:AS2">
-    <cfRule type="expression" dxfId="146" priority="141">
+  <conditionalFormatting sqref="BC2:BI4 BA5:BI5 BC6:BI8">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:K2">
-    <cfRule type="expression" dxfId="145" priority="140">
+  <conditionalFormatting sqref="C15:I19">
+    <cfRule type="expression" dxfId="14" priority="7">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2 F2">
-    <cfRule type="expression" dxfId="144" priority="149">
+  <conditionalFormatting sqref="X15:X19">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2 AA2:AE2 H2:I2 V2:X2 BH2 AT2:AV2 AG2:AH2">
-    <cfRule type="expression" dxfId="143" priority="158">
+  <conditionalFormatting sqref="Y17:Y19">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BD2 AY2 Q2">
-    <cfRule type="expression" dxfId="142" priority="157">
+  <conditionalFormatting sqref="AI15:AI19">
+    <cfRule type="expression" dxfId="11" priority="13">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BC2">
-    <cfRule type="expression" dxfId="141" priority="156">
+  <conditionalFormatting sqref="AJ15:AJ19">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA2">
-    <cfRule type="expression" dxfId="140" priority="155">
-      <formula>"$J5!=$K5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z2">
-    <cfRule type="expression" dxfId="139" priority="154">
-      <formula>"$J5!=$K5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="expression" dxfId="138" priority="139">
+  <conditionalFormatting sqref="AV15:AV19">
+    <cfRule type="expression" dxfId="9" priority="8">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF2">
-    <cfRule type="expression" dxfId="137" priority="138">
+  <conditionalFormatting sqref="BC15:BE19">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BI2">
-    <cfRule type="expression" dxfId="136" priority="137">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI2">
-    <cfRule type="expression" dxfId="135" priority="136">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE4">
-    <cfRule type="expression" dxfId="134" priority="135">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC3:BD3 AC3:AD3 AT4:AU4 B3:B4 AX3:AY3 AK3:AS3 V3:W4 AC4 AU3 AF3 AI3:AI5 AF4:AH4">
-    <cfRule type="expression" dxfId="133" priority="134">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD4 Q3:Q4">
-    <cfRule type="expression" dxfId="132" priority="133">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC4">
-    <cfRule type="expression" dxfId="131" priority="131">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N3">
-    <cfRule type="expression" dxfId="130" priority="132">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3">
-    <cfRule type="expression" dxfId="129" priority="130">
-      <formula>"$J5!=$K5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z3">
-    <cfRule type="expression" dxfId="128" priority="129">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z4">
-    <cfRule type="expression" dxfId="127" priority="128">
-      <formula>"$J5!=$K5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z4">
-    <cfRule type="expression" dxfId="126" priority="127">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX4">
-    <cfRule type="expression" dxfId="125" priority="126">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ4">
-    <cfRule type="expression" dxfId="124" priority="125">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG3:BG4">
-    <cfRule type="expression" dxfId="123" priority="124">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF4">
-    <cfRule type="expression" dxfId="122" priority="123">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F3:F4">
-    <cfRule type="expression" dxfId="121" priority="122">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G4">
-    <cfRule type="expression" dxfId="120" priority="121">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3">
-    <cfRule type="expression" dxfId="119" priority="120">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U4">
-    <cfRule type="expression" dxfId="118" priority="119">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3:I3">
-    <cfRule type="expression" dxfId="117" priority="118">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:Z8">
-    <cfRule type="expression" dxfId="116" priority="111">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ5:AZ8">
-    <cfRule type="expression" dxfId="115" priority="110">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG5:BG8">
-    <cfRule type="expression" dxfId="114" priority="109">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BF5:BF8">
-    <cfRule type="expression" dxfId="113" priority="108">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="expression" dxfId="112" priority="106">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U5:U8">
-    <cfRule type="expression" dxfId="111" priority="105">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW5 AW7:AW8">
-    <cfRule type="expression" dxfId="110" priority="104">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK5:AS8">
-    <cfRule type="expression" dxfId="109" priority="103">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4:I4">
-    <cfRule type="expression" dxfId="108" priority="102">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="expression" dxfId="107" priority="107">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW3:AW4">
-    <cfRule type="expression" dxfId="106" priority="117">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK4:AS4">
-    <cfRule type="expression" dxfId="105" priority="116">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5 AC5:AC8 H5:I5 AT5:AT8 AG5:AH8 AV5:AV8 V5:W5 W6:W8">
-    <cfRule type="expression" dxfId="104" priority="115">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BD5 Q5:Q8">
-    <cfRule type="expression" dxfId="103" priority="114">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC5">
-    <cfRule type="expression" dxfId="102" priority="113">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z5:Z8">
-    <cfRule type="expression" dxfId="101" priority="112">
-      <formula>"$J5!=$K5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="expression" dxfId="100" priority="101">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ3">
-    <cfRule type="expression" dxfId="99" priority="100">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="98" priority="99">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF5:AF8">
-    <cfRule type="expression" dxfId="97" priority="98">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ3:AJ8">
-    <cfRule type="expression" dxfId="96" priority="97">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI3">
-    <cfRule type="expression" dxfId="95" priority="96">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI5:BI8">
-    <cfRule type="expression" dxfId="94" priority="95">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI4">
-    <cfRule type="expression" dxfId="93" priority="94">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C3">
-    <cfRule type="expression" dxfId="92" priority="93">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="91" priority="92">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C5">
-    <cfRule type="expression" dxfId="90" priority="91">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X3">
-    <cfRule type="expression" dxfId="89" priority="90">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4">
-    <cfRule type="expression" dxfId="88" priority="89">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X5:X8">
-    <cfRule type="expression" dxfId="87" priority="88">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4">
-    <cfRule type="expression" dxfId="86" priority="87">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y5:Y8">
-    <cfRule type="expression" dxfId="85" priority="86">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV3">
-    <cfRule type="expression" dxfId="84" priority="85">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV4">
-    <cfRule type="expression" dxfId="83" priority="84">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB4">
-    <cfRule type="expression" dxfId="82" priority="83">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA5:BB8">
-    <cfRule type="expression" dxfId="81" priority="82">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE5:BE8">
-    <cfRule type="expression" dxfId="80" priority="81">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="79" priority="80">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="78" priority="79">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="expression" dxfId="77" priority="78">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="76" priority="77">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AT3">
-    <cfRule type="expression" dxfId="75" priority="76">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M3">
-    <cfRule type="expression" dxfId="74" priority="75">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5:M8">
-    <cfRule type="expression" dxfId="73" priority="74">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M4">
-    <cfRule type="expression" dxfId="72" priority="73">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="expression" dxfId="71" priority="72">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:K3">
-    <cfRule type="expression" dxfId="70" priority="71">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="expression" dxfId="69" priority="70">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4:K4">
-    <cfRule type="expression" dxfId="68" priority="69">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5:L8">
-    <cfRule type="expression" dxfId="67" priority="68">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5:K8">
-    <cfRule type="expression" dxfId="66" priority="67">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O3:O8">
-    <cfRule type="expression" dxfId="65" priority="66">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S3:T4">
-    <cfRule type="expression" dxfId="64" priority="65">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S5:T8">
-    <cfRule type="expression" dxfId="63" priority="64">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:T2">
-    <cfRule type="expression" dxfId="62" priority="63">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R3:R4">
-    <cfRule type="expression" dxfId="61" priority="62">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5 R7:R8">
-    <cfRule type="expression" dxfId="60" priority="61">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY4">
-    <cfRule type="expression" dxfId="59" priority="60">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AB8">
-    <cfRule type="expression" dxfId="58" priority="59">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA3:AA8">
-    <cfRule type="expression" dxfId="57" priority="58">
-      <formula>"$J5!=$K5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE3">
-    <cfRule type="expression" dxfId="56" priority="57">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG3:AH3">
-    <cfRule type="expression" dxfId="55" priority="56">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P4">
-    <cfRule type="expression" dxfId="54" priority="55">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5:P8">
-    <cfRule type="expression" dxfId="53" priority="54">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH3:BH4">
-    <cfRule type="expression" dxfId="52" priority="53">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BH5:BH8">
-    <cfRule type="expression" dxfId="51" priority="52">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y3">
-    <cfRule type="expression" dxfId="50" priority="51">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="expression" dxfId="49" priority="50">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N8">
-    <cfRule type="expression" dxfId="48" priority="49">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:A8">
-    <cfRule type="expression" dxfId="47" priority="48">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="46" priority="47">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AU5:AU8">
-    <cfRule type="expression" dxfId="45" priority="46">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY5:AY8">
-    <cfRule type="expression" dxfId="44" priority="45">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX5:AX8">
-    <cfRule type="expression" dxfId="43" priority="44">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD4:AD8">
-    <cfRule type="expression" dxfId="42" priority="43">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE4">
-    <cfRule type="expression" dxfId="41" priority="42">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE5:AE8">
-    <cfRule type="expression" dxfId="40" priority="41">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C8">
-    <cfRule type="expression" dxfId="39" priority="40">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6:G8">
-    <cfRule type="expression" dxfId="38" priority="37">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E8">
-    <cfRule type="expression" dxfId="37" priority="36">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C8 F6:F8">
-    <cfRule type="expression" dxfId="36" priority="38">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B8 H6:I8">
-    <cfRule type="expression" dxfId="35" priority="39">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D8">
-    <cfRule type="expression" dxfId="34" priority="35">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R6">
-    <cfRule type="expression" dxfId="33" priority="34">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BC6:BD8">
-    <cfRule type="expression" dxfId="32" priority="33">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N2">
-    <cfRule type="expression" dxfId="31" priority="32">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AW6">
-    <cfRule type="expression" dxfId="30" priority="31">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V6:V8">
-    <cfRule type="expression" dxfId="29" priority="30">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI6:AI8">
-    <cfRule type="expression" dxfId="28" priority="29">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:I11 N9:R11 D12:K12 M12:R12 D13:R14 B9:B14 U9:AB14">
-    <cfRule type="expression" dxfId="27" priority="28">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z9:AA14">
-    <cfRule type="expression" dxfId="26" priority="27">
-      <formula>"$J5!=$K5"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA9:BH10 BH11 AC11:AW11 AC9:AY10 AC12:BH14">
-    <cfRule type="expression" dxfId="25" priority="26">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C9:C14">
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S9:T14">
-    <cfRule type="expression" dxfId="23" priority="24">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ9:AZ10">
-    <cfRule type="expression" dxfId="22" priority="23">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M10">
-    <cfRule type="expression" dxfId="21" priority="12">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AX11:AY11 BC11:BG11">
-    <cfRule type="expression" dxfId="20" priority="22">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AZ11">
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BA11:BB11">
-    <cfRule type="expression" dxfId="18" priority="20">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M9">
-    <cfRule type="expression" dxfId="17" priority="19">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:K9">
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L10">
-    <cfRule type="expression" dxfId="15" priority="14">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M11">
-    <cfRule type="expression" dxfId="14" priority="17">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J10:K11">
-    <cfRule type="expression" dxfId="13" priority="16">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9">
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>MOD(ROW(), 2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P2">
+  <conditionalFormatting sqref="BF18:BG18">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BF2:BF3">
-    <cfRule type="expression" dxfId="3" priority="4">
+  <conditionalFormatting sqref="BH15:BH19">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BE2:BE3">
+  <conditionalFormatting sqref="AX15:AY19">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BA2:BA4">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MOD(ROW(), 2)=1</formula>
+  <conditionalFormatting sqref="AA15:AA19">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>"$J5!=$K5"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB2:BB3">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="AA15:AB19">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>MOD(ROW(), 2)=1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="G2:G14" r:id="rId1" display="jergold@stanford.edu" xr:uid="{A78F4488-64A7-514B-B20C-BBDE6C99EFC9}"/>
     <hyperlink ref="G3:G5" r:id="rId2" display="jergold@stanford.edu" xr:uid="{209D31D8-A896-FB4C-A0AB-D2A850396A4A}"/>
+    <hyperlink ref="G15" r:id="rId3" display="jergold@stanford.edu" xr:uid="{09311EF2-D850-3146-85BB-547E40A80B3A}"/>
+    <hyperlink ref="G16" r:id="rId4" display="jergold@stanford.edu" xr:uid="{6F0D6A5B-94E9-D74E-B5C5-1B12FC4DE5AF}"/>
+    <hyperlink ref="G17" r:id="rId5" display="jergold@stanford.edu" xr:uid="{0192FBE6-E94F-F244-836A-71F1FCB473D3}"/>
+    <hyperlink ref="G19" r:id="rId6" display="jergold@stanford.edu" xr:uid="{BA629FA5-7EAB-974C-A585-2B7D61DF772B}"/>
+    <hyperlink ref="G18" r:id="rId7" display="jergold@stanford.edu" xr:uid="{FE107D78-3A5E-9D45-8364-51D2A9DEAF9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>